--- a/data/trans_orig/P1497-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1497-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF54CB85-F81D-47BE-AC2A-4B4187DCB6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98124F05-4842-448D-A843-FA002F879426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A05AB9AB-863C-4A61-871B-8A200881A2F9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F619998E-2EB0-4302-959D-B2C26E1D852F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -382,451 +382,451 @@
     <t>8,73%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>91,27%</t>
   </si>
   <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
   <si>
     <t>92,09%</t>
   </si>
   <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
   </si>
   <si>
     <t>7,49%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>10,85%</t>
   </si>
   <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
   </si>
   <si>
     <t>89,15%</t>
   </si>
   <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>86,77%</t>
   </si>
   <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
   <si>
     <t>87,97%</t>
   </si>
   <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
   </si>
   <si>
     <t>7,15%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
+    <t>8,74%</t>
   </si>
   <si>
     <t>93,82%</t>
   </si>
   <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>92,85%</t>
   </si>
   <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
+    <t>91,26%</t>
   </si>
   <si>
     <t>6,6%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
   </si>
   <si>
     <t>7,22%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
   </si>
   <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
   </si>
   <si>
     <t>92,78%</t>
   </si>
   <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>93,09%</t>
   </si>
   <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>7,72%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>9,37%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
   </si>
   <si>
     <t>91,34%</t>
   </si>
   <si>
-    <t>92,28%</t>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>89,99%</t>
   </si>
   <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
   </si>
   <si>
     <t>90,63%</t>
   </si>
   <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CAB01DB-7144-4665-818D-B1D77A371276}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B49ACE-1BC2-4549-8F87-946B27054064}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2751,7 +2751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FEF695-CC80-4DC5-9854-82BABADBE7D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FA18CE-04A8-4D79-820D-0B9B08809CDD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4282,7 +4282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516E6F80-949B-4A69-928E-61B22D7A32BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DD0E5C-92FD-4CCF-BE26-E120F769A54F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4567,7 +4567,7 @@
         <v>132</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="H7" s="7">
         <v>68</v>
@@ -4579,10 +4579,10 @@
         <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M7" s="7">
         <v>102</v>
@@ -4591,13 +4591,13 @@
         <v>86666</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,13 +4612,13 @@
         <v>479403</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
         <v>648</v>
@@ -4630,10 +4630,10 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M8" s="7">
         <v>995</v>
@@ -4642,13 +4642,13 @@
         <v>985402</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4716,13 @@
         <v>46594</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>97</v>
@@ -4731,13 +4731,13 @@
         <v>59349</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M10" s="7">
         <v>153</v>
@@ -4746,13 +4746,13 @@
         <v>105944</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +4767,13 @@
         <v>275646</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H11" s="7">
         <v>439</v>
@@ -4782,13 +4782,13 @@
         <v>313935</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M11" s="7">
         <v>743</v>
@@ -4797,13 +4797,13 @@
         <v>589580</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4871,13 @@
         <v>51220</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -4886,13 +4886,13 @@
         <v>82387</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M13" s="7">
         <v>193</v>
@@ -4901,13 +4901,13 @@
         <v>133607</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4922,13 @@
         <v>271020</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H14" s="7">
         <v>457</v>
@@ -4937,13 +4937,13 @@
         <v>346169</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M14" s="7">
         <v>698</v>
@@ -4952,13 +4952,13 @@
         <v>617189</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5026,13 @@
         <v>7887</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5041,13 +5041,13 @@
         <v>9198</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -5056,13 +5056,13 @@
         <v>17086</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5077,13 @@
         <v>188153</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>471</v>
@@ -5181,13 +5181,13 @@
         <v>30068</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H19" s="7">
         <v>69</v>
@@ -5196,13 +5196,13 @@
         <v>36359</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" s="7">
         <v>117</v>
@@ -5211,13 +5211,13 @@
         <v>66428</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5232,13 @@
         <v>247155</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H20" s="7">
         <v>390</v>
@@ -5247,13 +5247,13 @@
         <v>238546</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M20" s="7">
         <v>713</v>
@@ -5262,13 +5262,13 @@
         <v>485699</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5336,13 @@
         <v>38725</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>214</v>
+        <v>36</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H22" s="7">
         <v>90</v>
@@ -5354,10 +5354,10 @@
         <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M22" s="7">
         <v>130</v>
@@ -5366,10 +5366,10 @@
         <v>102307</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>220</v>
@@ -5393,7 +5393,7 @@
         <v>222</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="H23" s="7">
         <v>866</v>
@@ -5405,10 +5405,10 @@
         <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M23" s="7">
         <v>1424</v>
@@ -5417,13 +5417,13 @@
         <v>1328235</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>228</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,13 +5491,13 @@
         <v>56759</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H25" s="7">
         <v>79</v>
@@ -5506,13 +5506,13 @@
         <v>62471</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M25" s="7">
         <v>137</v>
@@ -5521,13 +5521,13 @@
         <v>119229</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,13 +5542,13 @@
         <v>802669</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H26" s="7">
         <v>982</v>
@@ -5557,13 +5557,13 @@
         <v>803201</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M26" s="7">
         <v>1686</v>
@@ -5572,13 +5572,13 @@
         <v>1605871</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5646,13 @@
         <v>292793</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H28" s="7">
         <v>603</v>
@@ -5661,13 +5661,13 @@
         <v>380514</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M28" s="7">
         <v>932</v>
@@ -5676,13 +5676,13 @@
         <v>673307</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,10 +5697,10 @@
         <v>3089879</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>256</v>
@@ -5724,7 +5724,7 @@
         <v>7797</v>
       </c>
       <c r="N29" s="7">
-        <v>6512086</v>
+        <v>6512087</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>260</v>
@@ -5775,7 +5775,7 @@
         <v>8729</v>
       </c>
       <c r="N30" s="7">
-        <v>7185393</v>
+        <v>7185394</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>16</v>

--- a/data/trans_orig/P1497-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1497-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98124F05-4842-448D-A843-FA002F879426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ED50F3F-3034-489F-9907-9003331E430B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F619998E-2EB0-4302-959D-B2C26E1D852F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{296FEFAB-0CBE-4326-BB15-04AA491CEB10}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -247,7 +247,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con diagnóstico de otra enfermedad 1 en 2015 (Tasa respuesta: 6,36%)</t>
+    <t>Población con diagnóstico de otra enfermedad 1 en 2016 (Tasa respuesta: 6,36%)</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -1238,7 +1238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B49ACE-1BC2-4549-8F87-946B27054064}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F0B319-A864-42E2-A69A-20C342E34776}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2751,7 +2751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FA18CE-04A8-4D79-820D-0B9B08809CDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918981CB-121C-4FA5-94C5-59149281EF23}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4282,7 +4282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DD0E5C-92FD-4CCF-BE26-E120F769A54F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70D9E60-A915-4C83-AC21-9A63C95F8AF4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
